--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keigo\Desktop\programming\crude_drug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6979A1-A0A6-4469-ABB3-8AE8988593EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A20A6-4A71-4ED3-A4F2-B134C1A1744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E32A31B4-0058-8D4D-8689-F75B5CB5B076}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6649" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6673" uniqueCount="589">
   <si>
     <t>オウギ</t>
     <phoneticPr fontId="2"/>
@@ -3869,6 +3869,192 @@
   </si>
   <si>
     <t>other</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マグノクラリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンジサポニン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メチルオイゲノール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オフィオポゴニンB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>αシペロン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シミゲノール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アリソールA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホモゲンチジン酸</t>
+    <rPh sb="7" eb="8">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エルゴメトリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モルヒネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>炭酸カルシウム</t>
+    <rPh sb="0" eb="2">
+      <t>タンサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウルソデオキシコール酸</t>
+    <rPh sb="10" eb="11">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギンセノシド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>湯通しまたは蒸してから乾燥（カンキョウ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コウジン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニンジン</t>
+    <rPh sb="0" eb="2">
+      <t>コウジn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>根(蒸してから乾燥させたもの)</t>
+    <rPh sb="0" eb="1">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カンキョウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[6]-ショウガオール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（カンキョウ）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ショウキョウ</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>根茎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ショウキョウ）</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[6]-ギンゲロール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ショウキョウ）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ギn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタキオースもしくはマンニノトリオース</t>
+    <rPh sb="0" eb="2">
+      <t>ジオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>根もしくは根を蒸して乾燥したもの</t>
+    <rPh sb="0" eb="1">
+      <t>ネ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4339,6 +4525,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4385,9 +4574,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4707,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61358B91-DE31-AD43-9DAB-E5ADAA9CF25C}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E71" zoomScale="84" zoomScaleNormal="116" zoomScaleSheetLayoutView="116" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="57" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
@@ -4831,7 +5017,7 @@
         <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>451</v>
+        <v>565</v>
       </c>
       <c r="H4" t="s">
         <v>556</v>
@@ -5063,7 +5249,7 @@
         <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>459</v>
+        <v>566</v>
       </c>
       <c r="H12" t="s">
         <v>558</v>
@@ -5213,7 +5399,9 @@
       <c r="F17" t="s">
         <v>128</v>
       </c>
-      <c r="G17"/>
+      <c r="G17" t="s">
+        <v>567</v>
+      </c>
       <c r="H17" t="s">
         <v>558</v>
       </c>
@@ -5236,10 +5424,10 @@
         <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="G18" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="H18" t="s">
         <v>558</v>
@@ -5398,7 +5586,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>580</v>
       </c>
       <c r="C24" t="s">
         <v>382</v>
@@ -5413,7 +5601,7 @@
         <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="H24" t="s">
         <v>558</v>
@@ -5443,7 +5631,9 @@
       <c r="F25" t="s">
         <v>149</v>
       </c>
-      <c r="G25"/>
+      <c r="G25" t="s">
+        <v>568</v>
+      </c>
       <c r="H25" t="s">
         <v>558</v>
       </c>
@@ -5609,7 +5799,6 @@
       <c r="F31" t="s">
         <v>160</v>
       </c>
-      <c r="G31"/>
       <c r="H31" t="s">
         <v>557</v>
       </c>
@@ -5634,7 +5823,9 @@
       <c r="F32" t="s">
         <v>161</v>
       </c>
-      <c r="G32"/>
+      <c r="G32" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="H32" t="s">
         <v>557</v>
       </c>
@@ -5676,7 +5867,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>584</v>
       </c>
       <c r="C34" t="s">
         <v>392</v>
@@ -5688,10 +5879,10 @@
         <v>163</v>
       </c>
       <c r="F34" t="s">
-        <v>480</v>
+        <v>585</v>
       </c>
       <c r="G34" t="s">
-        <v>481</v>
+        <v>586</v>
       </c>
       <c r="H34" t="s">
         <v>557</v>
@@ -5721,7 +5912,9 @@
       <c r="F35" t="s">
         <v>161</v>
       </c>
-      <c r="G35"/>
+      <c r="G35" t="s">
+        <v>570</v>
+      </c>
       <c r="H35" t="s">
         <v>557</v>
       </c>
@@ -5839,7 +6032,9 @@
       <c r="F39" t="s">
         <v>173</v>
       </c>
-      <c r="G39"/>
+      <c r="G39" t="s">
+        <v>571</v>
+      </c>
       <c r="H39" t="s">
         <v>557</v>
       </c>
@@ -5922,7 +6117,9 @@
       <c r="F42" t="s">
         <v>488</v>
       </c>
-      <c r="G42"/>
+      <c r="G42" t="s">
+        <v>572</v>
+      </c>
       <c r="H42" t="s">
         <v>557</v>
       </c>
@@ -6975,7 +7172,9 @@
       <c r="F79" t="s">
         <v>250</v>
       </c>
-      <c r="G79"/>
+      <c r="G79" t="s">
+        <v>573</v>
+      </c>
       <c r="H79" t="s">
         <v>564</v>
       </c>
@@ -7080,7 +7279,9 @@
       <c r="F83" t="s">
         <v>260</v>
       </c>
-      <c r="G83"/>
+      <c r="G83" t="s">
+        <v>574</v>
+      </c>
       <c r="H83" t="s">
         <v>564</v>
       </c>
@@ -7198,7 +7399,9 @@
       <c r="F87" t="s">
         <v>271</v>
       </c>
-      <c r="G87"/>
+      <c r="G87" t="s">
+        <v>575</v>
+      </c>
       <c r="H87" t="s">
         <v>564</v>
       </c>
@@ -7227,7 +7430,9 @@
       <c r="F88" t="s">
         <v>274</v>
       </c>
-      <c r="G88"/>
+      <c r="G88" t="s">
+        <v>576</v>
+      </c>
       <c r="H88" t="s">
         <v>564</v>
       </c>
@@ -7245,11 +7450,11 @@
         <v>84</v>
       </c>
       <c r="C89"/>
-      <c r="D89" s="64" t="s">
+      <c r="D89" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
       <c r="G89"/>
       <c r="H89" t="s">
         <v>564</v>
@@ -7264,11 +7469,11 @@
         <v>85</v>
       </c>
       <c r="C90"/>
-      <c r="D90" s="64" t="s">
+      <c r="D90" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
       <c r="G90"/>
       <c r="H90" t="s">
         <v>564</v>
@@ -7287,11 +7492,11 @@
         <v>86</v>
       </c>
       <c r="C91"/>
-      <c r="D91" s="64" t="s">
+      <c r="D91" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
       <c r="G91"/>
       <c r="H91" t="s">
         <v>564</v>
@@ -7306,11 +7511,11 @@
         <v>87</v>
       </c>
       <c r="C92"/>
-      <c r="D92" s="64" t="s">
+      <c r="D92" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
       <c r="G92"/>
       <c r="H92" t="s">
         <v>564</v>
@@ -7445,6 +7650,58 @@
       </c>
       <c r="H97" s="7" t="s">
         <v>558</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>579</v>
+      </c>
+      <c r="C98" t="s">
+        <v>382</v>
+      </c>
+      <c r="D98" t="s">
+        <v>141</v>
+      </c>
+      <c r="E98" t="s">
+        <v>144</v>
+      </c>
+      <c r="F98" t="s">
+        <v>581</v>
+      </c>
+      <c r="G98" t="s">
+        <v>577</v>
+      </c>
+      <c r="H98" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" t="s">
+        <v>162</v>
+      </c>
+      <c r="E99" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G99" t="s">
+        <v>583</v>
+      </c>
+      <c r="H99" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -10001,11 +10258,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="59" t="s">
+      <c r="D89" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="60"/>
-      <c r="F89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="62"/>
       <c r="G89" s="34"/>
       <c r="H89" s="35" t="s">
         <v>342</v>
@@ -10021,11 +10278,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="62" t="s">
+      <c r="D90" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
       <c r="G90" s="5"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -10041,11 +10298,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
       <c r="G91" s="5"/>
       <c r="H91" s="21" t="s">
         <v>351</v>
@@ -10061,11 +10318,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="62" t="s">
+      <c r="D92" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
       <c r="G92" s="5"/>
       <c r="H92" s="21" t="s">
         <v>352</v>
@@ -10111,8 +10368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA2EF5-65BE-A247-9320-F402E494185E}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G18"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="G24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
@@ -12539,11 +12796,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="49"/>
-      <c r="F89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="51"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -12557,11 +12814,11 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -12577,11 +12834,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="51" t="s">
+      <c r="D91" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="51"/>
-      <c r="F91" s="51"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -12595,11 +12852,11 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="51" t="s">
+      <c r="D92" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -15083,11 +15340,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -15103,11 +15360,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -15123,11 +15380,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -15143,11 +15400,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -17629,11 +17886,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -17649,11 +17906,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -17669,11 +17926,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -17689,11 +17946,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -20173,11 +20430,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -20193,11 +20450,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -20213,11 +20470,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -20233,11 +20490,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -22769,11 +23026,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24" t="s">
         <v>534</v>
       </c>
@@ -22791,11 +23048,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14" t="s">
         <v>534</v>
       </c>
@@ -22813,11 +23070,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14" t="s">
         <v>534</v>
       </c>
@@ -22835,11 +23092,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14" t="s">
         <v>534</v>
       </c>
@@ -25629,11 +25886,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -25653,11 +25910,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21"/>
       <c r="I90" s="16" t="s">
@@ -25675,11 +25932,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -25699,11 +25956,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -28537,11 +28794,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -28561,11 +28818,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -28585,11 +28842,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -28609,11 +28866,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -31449,11 +31706,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="53" t="s">
+      <c r="D89" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -31473,11 +31730,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="59"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -31497,11 +31754,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="56" t="s">
+      <c r="D91" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -31521,11 +31778,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="56" t="s">
+      <c r="D92" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keigo\Desktop\programming\crude_drug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A20A6-4A71-4ED3-A4F2-B134C1A1744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64AA483-2E12-4EA4-BE16-B66A0DECD2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E32A31B4-0058-8D4D-8689-F75B5CB5B076}"/>
   </bookViews>
@@ -4893,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61358B91-DE31-AD43-9DAB-E5ADAA9CF25C}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="57" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="57" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keigo\Desktop\programming\crude_drug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64AA483-2E12-4EA4-BE16-B66A0DECD2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5823029-7BD5-4236-BA83-CA26816E610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E32A31B4-0058-8D4D-8689-F75B5CB5B076}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6673" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6772" uniqueCount="592">
   <si>
     <t>オウギ</t>
     <phoneticPr fontId="2"/>
@@ -3933,7 +3933,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>湯通しまたは蒸してから乾燥（カンキョウ）</t>
+    <t>湯通しまたは蒸してから乾燥</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3965,29 +3965,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>[6]-ショウガオール</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（カンキョウ）</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ショウキョウ</t>
     <rPh sb="0" eb="2">
       <t>カンキョ</t>
@@ -3995,55 +3972,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>根茎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ショウキョウ）</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック (本文)"/>
-        <charset val="128"/>
-      </rPr>
-      <t>[6]-ギンゲロール</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（ショウキョウ）</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>ギn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スタキオースもしくはマンニノトリオース</t>
     <rPh sb="0" eb="2">
       <t>ジオウ</t>
@@ -4055,6 +3983,33 @@
     <rPh sb="0" eb="1">
       <t>ネ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[6]-ショウガオール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[6]-ギンゲロール</t>
+    <rPh sb="0" eb="1">
+      <t>ギn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>根茎</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>important</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4380,7 +4335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4574,6 +4529,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4893,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61358B91-DE31-AD43-9DAB-E5ADAA9CF25C}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="57" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="47" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
@@ -4933,7 +4891,9 @@
       <c r="H1" t="s">
         <v>559</v>
       </c>
-      <c r="I1"/>
+      <c r="I1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2">
@@ -4960,7 +4920,9 @@
       <c r="H2" t="s">
         <v>556</v>
       </c>
-      <c r="I2"/>
+      <c r="I2" t="s">
+        <v>590</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -4991,7 +4953,9 @@
       <c r="H3" t="s">
         <v>556</v>
       </c>
-      <c r="I3"/>
+      <c r="I3" t="s">
+        <v>590</v>
+      </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -5022,7 +4986,9 @@
       <c r="H4" t="s">
         <v>556</v>
       </c>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>590</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -5053,7 +5019,9 @@
       <c r="H5" t="s">
         <v>556</v>
       </c>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
       <c r="A6">
@@ -5080,7 +5048,9 @@
       <c r="H6" t="s">
         <v>556</v>
       </c>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>590</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -5111,7 +5081,9 @@
       <c r="H7" t="s">
         <v>557</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
@@ -5138,7 +5110,9 @@
       <c r="H8" t="s">
         <v>557</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
@@ -5165,7 +5139,9 @@
       <c r="H9" t="s">
         <v>557</v>
       </c>
-      <c r="I9"/>
+      <c r="I9" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1">
       <c r="A10">
@@ -5192,7 +5168,9 @@
       <c r="H10" t="s">
         <v>558</v>
       </c>
-      <c r="I10"/>
+      <c r="I10" t="s">
+        <v>590</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -5223,7 +5201,9 @@
       <c r="H11" t="s">
         <v>558</v>
       </c>
-      <c r="I11"/>
+      <c r="I11" t="s">
+        <v>590</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -5254,7 +5234,9 @@
       <c r="H12" t="s">
         <v>558</v>
       </c>
-      <c r="I12"/>
+      <c r="I12" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1">
       <c r="A13">
@@ -5281,7 +5263,9 @@
       <c r="H13" t="s">
         <v>558</v>
       </c>
-      <c r="I13"/>
+      <c r="I13" t="s">
+        <v>590</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -5312,7 +5296,9 @@
       <c r="H14" t="s">
         <v>558</v>
       </c>
-      <c r="I14"/>
+      <c r="I14" t="s">
+        <v>590</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -5343,7 +5329,9 @@
       <c r="H15" t="s">
         <v>558</v>
       </c>
-      <c r="I15"/>
+      <c r="I15" t="s">
+        <v>590</v>
+      </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -5374,7 +5362,9 @@
       <c r="H16" t="s">
         <v>558</v>
       </c>
-      <c r="I16"/>
+      <c r="I16" t="s">
+        <v>590</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -5405,7 +5395,9 @@
       <c r="H17" t="s">
         <v>558</v>
       </c>
-      <c r="I17"/>
+      <c r="I17" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1">
       <c r="A18">
@@ -5424,15 +5416,17 @@
         <v>127</v>
       </c>
       <c r="F18" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G18" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H18" t="s">
         <v>558</v>
       </c>
-      <c r="I18"/>
+      <c r="I18" t="s">
+        <v>590</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -5463,7 +5457,9 @@
       <c r="H19" t="s">
         <v>558</v>
       </c>
-      <c r="I19"/>
+      <c r="I19" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1">
       <c r="A20">
@@ -5490,7 +5486,9 @@
       <c r="H20" t="s">
         <v>558</v>
       </c>
-      <c r="I20"/>
+      <c r="I20" t="s">
+        <v>590</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -5521,7 +5519,9 @@
       <c r="H21" t="s">
         <v>558</v>
       </c>
-      <c r="I21"/>
+      <c r="I21" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22">
@@ -5548,7 +5548,9 @@
       <c r="H22" t="s">
         <v>558</v>
       </c>
-      <c r="I22"/>
+      <c r="I22" t="s">
+        <v>590</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -5579,7 +5581,9 @@
       <c r="H23" t="s">
         <v>558</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24">
@@ -5606,7 +5610,9 @@
       <c r="H24" t="s">
         <v>558</v>
       </c>
-      <c r="I24"/>
+      <c r="I24" t="s">
+        <v>590</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -5637,7 +5643,9 @@
       <c r="H25" t="s">
         <v>558</v>
       </c>
-      <c r="I25"/>
+      <c r="I25" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26">
@@ -5664,7 +5672,9 @@
       <c r="H26" t="s">
         <v>558</v>
       </c>
-      <c r="I26"/>
+      <c r="I26" t="s">
+        <v>590</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -5693,7 +5703,9 @@
       <c r="H27" t="s">
         <v>558</v>
       </c>
-      <c r="I27"/>
+      <c r="I27" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
@@ -5720,7 +5732,9 @@
       <c r="H28" t="s">
         <v>558</v>
       </c>
-      <c r="I28"/>
+      <c r="I28" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
@@ -5747,7 +5761,9 @@
       <c r="H29" t="s">
         <v>558</v>
       </c>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1">
       <c r="A30">
@@ -5774,7 +5790,9 @@
       <c r="H30" t="s">
         <v>557</v>
       </c>
-      <c r="I30"/>
+      <c r="I30" t="s">
+        <v>590</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -5802,7 +5820,9 @@
       <c r="H31" t="s">
         <v>557</v>
       </c>
-      <c r="I31"/>
+      <c r="I31" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
@@ -5829,7 +5849,9 @@
       <c r="H32" t="s">
         <v>557</v>
       </c>
-      <c r="I32"/>
+      <c r="I32" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33">
@@ -5856,7 +5878,9 @@
       <c r="H33" t="s">
         <v>557</v>
       </c>
-      <c r="I33"/>
+      <c r="I33" t="s">
+        <v>590</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -5867,7 +5891,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C34" t="s">
         <v>392</v>
@@ -5878,16 +5902,18 @@
       <c r="E34" t="s">
         <v>163</v>
       </c>
-      <c r="F34" t="s">
-        <v>585</v>
-      </c>
-      <c r="G34" t="s">
-        <v>586</v>
+      <c r="F34" s="65" t="s">
+        <v>588</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>587</v>
       </c>
       <c r="H34" t="s">
         <v>557</v>
       </c>
-      <c r="I34"/>
+      <c r="I34" t="s">
+        <v>590</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -5918,7 +5944,9 @@
       <c r="H35" t="s">
         <v>557</v>
       </c>
-      <c r="I35"/>
+      <c r="I35" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36">
@@ -5945,7 +5973,9 @@
       <c r="H36" t="s">
         <v>557</v>
       </c>
-      <c r="I36"/>
+      <c r="I36" t="s">
+        <v>590</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -5976,7 +6006,9 @@
       <c r="H37" t="s">
         <v>557</v>
       </c>
-      <c r="I37"/>
+      <c r="I37" t="s">
+        <v>590</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -6007,7 +6039,9 @@
       <c r="H38" t="s">
         <v>557</v>
       </c>
-      <c r="I38"/>
+      <c r="I38" t="s">
+        <v>590</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -6038,7 +6072,9 @@
       <c r="H39" t="s">
         <v>557</v>
       </c>
-      <c r="I39"/>
+      <c r="I39" t="s">
+        <v>590</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -6069,7 +6105,9 @@
       <c r="H40" t="s">
         <v>557</v>
       </c>
-      <c r="I40"/>
+      <c r="I40" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
@@ -6096,7 +6134,9 @@
       <c r="H41" t="s">
         <v>557</v>
       </c>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42">
@@ -6123,7 +6163,9 @@
       <c r="H42" t="s">
         <v>557</v>
       </c>
-      <c r="I42"/>
+      <c r="I42" t="s">
+        <v>590</v>
+      </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
@@ -6154,7 +6196,9 @@
       <c r="H43" t="s">
         <v>557</v>
       </c>
-      <c r="I43"/>
+      <c r="I43" t="s">
+        <v>590</v>
+      </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -6185,7 +6229,9 @@
       <c r="H44" t="s">
         <v>557</v>
       </c>
-      <c r="I44"/>
+      <c r="I44" t="s">
+        <v>590</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
@@ -6216,7 +6262,9 @@
       <c r="H45" t="s">
         <v>560</v>
       </c>
-      <c r="I45"/>
+      <c r="I45" t="s">
+        <v>590</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -6247,7 +6295,9 @@
       <c r="H46" t="s">
         <v>560</v>
       </c>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>590</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -6278,7 +6328,9 @@
       <c r="H47" t="s">
         <v>560</v>
       </c>
-      <c r="I47"/>
+      <c r="I47" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
@@ -6305,7 +6357,9 @@
       <c r="H48" t="s">
         <v>561</v>
       </c>
-      <c r="I48"/>
+      <c r="I48" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
@@ -6330,7 +6384,9 @@
       <c r="H49" t="s">
         <v>561</v>
       </c>
-      <c r="I49"/>
+      <c r="I49" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
@@ -6357,7 +6413,9 @@
       <c r="H50" t="s">
         <v>561</v>
       </c>
-      <c r="I50"/>
+      <c r="I50" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51">
@@ -6384,7 +6442,9 @@
       <c r="H51" t="s">
         <v>561</v>
       </c>
-      <c r="I51"/>
+      <c r="I51" t="s">
+        <v>590</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
@@ -6415,7 +6475,9 @@
       <c r="H52" t="s">
         <v>561</v>
       </c>
-      <c r="I52"/>
+      <c r="I52" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53">
@@ -6442,7 +6504,9 @@
       <c r="H53" t="s">
         <v>562</v>
       </c>
-      <c r="I53"/>
+      <c r="I53" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
@@ -6469,7 +6533,9 @@
       <c r="H54" t="s">
         <v>562</v>
       </c>
-      <c r="I54"/>
+      <c r="I54" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
@@ -6496,7 +6562,9 @@
       <c r="H55" t="s">
         <v>562</v>
       </c>
-      <c r="I55"/>
+      <c r="I55" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
@@ -6523,7 +6591,9 @@
       <c r="H56" t="s">
         <v>562</v>
       </c>
-      <c r="I56"/>
+      <c r="I56" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57">
@@ -6550,7 +6620,9 @@
       <c r="H57" t="s">
         <v>562</v>
       </c>
-      <c r="I57"/>
+      <c r="I57" t="s">
+        <v>590</v>
+      </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -6581,7 +6653,9 @@
       <c r="H58" t="s">
         <v>562</v>
       </c>
-      <c r="I58"/>
+      <c r="I58" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
@@ -6608,7 +6682,9 @@
       <c r="H59" t="s">
         <v>562</v>
       </c>
-      <c r="I59"/>
+      <c r="I59" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
@@ -6633,7 +6709,9 @@
       <c r="H60" t="s">
         <v>562</v>
       </c>
-      <c r="I60"/>
+      <c r="I60" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1">
       <c r="A61">
@@ -6660,7 +6738,9 @@
       <c r="H61" t="s">
         <v>562</v>
       </c>
-      <c r="I61"/>
+      <c r="I61" t="s">
+        <v>590</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -6691,7 +6771,9 @@
       <c r="H62" t="s">
         <v>562</v>
       </c>
-      <c r="I62"/>
+      <c r="I62" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
@@ -6718,7 +6800,9 @@
       <c r="H63" t="s">
         <v>562</v>
       </c>
-      <c r="I63"/>
+      <c r="I63" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
@@ -6745,7 +6829,9 @@
       <c r="H64" t="s">
         <v>562</v>
       </c>
-      <c r="I64"/>
+      <c r="I64" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="65" spans="1:13" s="1" customFormat="1">
       <c r="A65">
@@ -6772,7 +6858,9 @@
       <c r="H65" t="s">
         <v>563</v>
       </c>
-      <c r="I65"/>
+      <c r="I65" t="s">
+        <v>590</v>
+      </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -6803,7 +6891,9 @@
       <c r="H66" t="s">
         <v>563</v>
       </c>
-      <c r="I66"/>
+      <c r="I66" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
@@ -6828,7 +6918,9 @@
       <c r="H67" t="s">
         <v>563</v>
       </c>
-      <c r="I67"/>
+      <c r="I67" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
@@ -6855,7 +6947,9 @@
       <c r="H68" t="s">
         <v>563</v>
       </c>
-      <c r="I68"/>
+      <c r="I68" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
@@ -6882,7 +6976,9 @@
       <c r="H69" t="s">
         <v>563</v>
       </c>
-      <c r="I69"/>
+      <c r="I69" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70">
@@ -6909,7 +7005,9 @@
       <c r="H70" t="s">
         <v>563</v>
       </c>
-      <c r="I70"/>
+      <c r="I70" t="s">
+        <v>590</v>
+      </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
@@ -6940,7 +7038,9 @@
       <c r="H71" t="s">
         <v>563</v>
       </c>
-      <c r="I71"/>
+      <c r="I71" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="72" spans="1:13" s="1" customFormat="1">
       <c r="A72">
@@ -6965,7 +7065,9 @@
       <c r="H72" t="s">
         <v>563</v>
       </c>
-      <c r="I72"/>
+      <c r="I72" t="s">
+        <v>590</v>
+      </c>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
@@ -6996,7 +7098,9 @@
       <c r="H73" t="s">
         <v>564</v>
       </c>
-      <c r="I73"/>
+      <c r="I73" t="s">
+        <v>590</v>
+      </c>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
@@ -7027,7 +7131,9 @@
       <c r="H74" t="s">
         <v>564</v>
       </c>
-      <c r="I74"/>
+      <c r="I74" t="s">
+        <v>590</v>
+      </c>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
@@ -7058,7 +7164,9 @@
       <c r="H75" t="s">
         <v>564</v>
       </c>
-      <c r="I75"/>
+      <c r="I75" t="s">
+        <v>590</v>
+      </c>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
@@ -7089,7 +7197,9 @@
       <c r="H76" t="s">
         <v>564</v>
       </c>
-      <c r="I76"/>
+      <c r="I76" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="77" spans="1:13" s="1" customFormat="1">
       <c r="A77">
@@ -7116,7 +7226,9 @@
       <c r="H77" t="s">
         <v>564</v>
       </c>
-      <c r="I77"/>
+      <c r="I77" t="s">
+        <v>590</v>
+      </c>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
@@ -7147,7 +7259,9 @@
       <c r="H78" t="s">
         <v>564</v>
       </c>
-      <c r="I78"/>
+      <c r="I78" t="s">
+        <v>590</v>
+      </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
@@ -7178,7 +7292,9 @@
       <c r="H79" t="s">
         <v>564</v>
       </c>
-      <c r="I79"/>
+      <c r="I79" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1">
       <c r="A80">
@@ -7205,7 +7321,9 @@
       <c r="H80" t="s">
         <v>564</v>
       </c>
-      <c r="I80"/>
+      <c r="I80" t="s">
+        <v>590</v>
+      </c>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
@@ -7231,7 +7349,9 @@
       <c r="H81" t="s">
         <v>564</v>
       </c>
-      <c r="I81"/>
+      <c r="I81" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82">
@@ -7258,7 +7378,9 @@
       <c r="H82" t="s">
         <v>564</v>
       </c>
-      <c r="I82"/>
+      <c r="I82" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1">
       <c r="A83">
@@ -7285,7 +7407,9 @@
       <c r="H83" t="s">
         <v>564</v>
       </c>
-      <c r="I83"/>
+      <c r="I83" t="s">
+        <v>590</v>
+      </c>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
@@ -7316,7 +7440,9 @@
       <c r="H84" t="s">
         <v>564</v>
       </c>
-      <c r="I84"/>
+      <c r="I84" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="85" spans="1:13" s="1" customFormat="1">
       <c r="A85">
@@ -7343,7 +7469,9 @@
       <c r="H85" t="s">
         <v>564</v>
       </c>
-      <c r="I85"/>
+      <c r="I85" t="s">
+        <v>590</v>
+      </c>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
@@ -7374,7 +7502,9 @@
       <c r="H86" t="s">
         <v>564</v>
       </c>
-      <c r="I86"/>
+      <c r="I86" t="s">
+        <v>590</v>
+      </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
@@ -7405,7 +7535,9 @@
       <c r="H87" t="s">
         <v>564</v>
       </c>
-      <c r="I87"/>
+      <c r="I87" t="s">
+        <v>590</v>
+      </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -7436,7 +7568,9 @@
       <c r="H88" t="s">
         <v>564</v>
       </c>
-      <c r="I88"/>
+      <c r="I88" t="s">
+        <v>590</v>
+      </c>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
@@ -7459,7 +7593,9 @@
       <c r="H89" t="s">
         <v>564</v>
       </c>
-      <c r="I89"/>
+      <c r="I89" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1">
       <c r="A90">
@@ -7478,7 +7614,9 @@
       <c r="H90" t="s">
         <v>564</v>
       </c>
-      <c r="I90"/>
+      <c r="I90" t="s">
+        <v>590</v>
+      </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
@@ -7501,7 +7639,9 @@
       <c r="H91" t="s">
         <v>564</v>
       </c>
-      <c r="I91"/>
+      <c r="I91" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1">
       <c r="A92">
@@ -7520,7 +7660,9 @@
       <c r="H92" t="s">
         <v>564</v>
       </c>
-      <c r="I92"/>
+      <c r="I92" t="s">
+        <v>591</v>
+      </c>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
@@ -7549,6 +7691,9 @@
       <c r="H93" s="7" t="s">
         <v>557</v>
       </c>
+      <c r="I93" s="7" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94">
@@ -7575,6 +7720,9 @@
       <c r="H94" s="7" t="s">
         <v>557</v>
       </c>
+      <c r="I94" s="7" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95">
@@ -7599,6 +7747,9 @@
       <c r="H95" s="7" t="s">
         <v>557</v>
       </c>
+      <c r="I95" s="7" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96">
@@ -7625,8 +7776,11 @@
       <c r="H96" s="7" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7651,8 +7805,11 @@
       <c r="H97" s="7" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>23</v>
       </c>
@@ -7677,8 +7834,11 @@
       <c r="H98" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>33</v>
       </c>
@@ -7697,27 +7857,30 @@
       <c r="F99" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G99" t="s">
-        <v>583</v>
+      <c r="G99" s="65" t="s">
+        <v>586</v>
       </c>
       <c r="H99" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I99" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="C103"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="C105"/>
       <c r="E105" s="7"/>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keigo\Desktop\programming\crude_drug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5823029-7BD5-4236-BA83-CA26816E610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074D010-5082-4B4D-8296-156A5C61CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E32A31B4-0058-8D4D-8689-F75B5CB5B076}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6772" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="592">
   <si>
     <t>オウギ</t>
     <phoneticPr fontId="2"/>
@@ -4133,7 +4133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4155,6 +4155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4335,7 +4341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4480,6 +4486,9 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4531,7 +4540,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4851,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61358B91-DE31-AD43-9DAB-E5ADAA9CF25C}">
   <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="47" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C83" zoomScale="47" zoomScaleNormal="116" zoomScaleSheetLayoutView="38" workbookViewId="0">
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
@@ -4863,10 +4896,12 @@
     <col min="4" max="4" width="19.53515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.84375" customWidth="1"/>
     <col min="6" max="6" width="36.84375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="90.07421875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="74.23046875" style="7" customWidth="1"/>
     <col min="8" max="8" width="24.84375" style="7" customWidth="1"/>
     <col min="9" max="9" width="26.3828125" style="7" customWidth="1"/>
     <col min="10" max="10" width="25.53515625" customWidth="1"/>
+    <col min="11" max="11" width="30.23046875" customWidth="1"/>
+    <col min="12" max="12" width="27.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4894,6 +4929,15 @@
       <c r="I1" t="s">
         <v>589</v>
       </c>
+      <c r="J1" s="66" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2">
@@ -4923,9 +4967,15 @@
       <c r="I2" t="s">
         <v>590</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="J2" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>450</v>
+      </c>
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
@@ -4956,9 +5006,13 @@
       <c r="I3" t="s">
         <v>590</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="J3" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="L3" s="68"/>
       <c r="M3"/>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1">
@@ -4989,9 +5043,13 @@
       <c r="I4" t="s">
         <v>590</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
+      <c r="J4" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="68"/>
+      <c r="L4" s="67" t="s">
+        <v>286</v>
+      </c>
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13">
@@ -5022,8 +5080,15 @@
       <c r="I5" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="J5" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="20.5" thickBot="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5051,12 +5116,14 @@
       <c r="I6" t="s">
         <v>590</v>
       </c>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="J6" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="20.5" thickTop="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5084,6 +5151,13 @@
       <c r="I7" t="s">
         <v>591</v>
       </c>
+      <c r="J7" s="71" t="s">
+        <v>321</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
@@ -5113,8 +5187,13 @@
       <c r="I8" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="J8" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.5" thickBot="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5142,8 +5221,13 @@
       <c r="I9" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="J9" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="20.5" thickTop="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5171,9 +5255,13 @@
       <c r="I10" t="s">
         <v>590</v>
       </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
+      <c r="J10" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="71"/>
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1">
@@ -5204,9 +5292,11 @@
       <c r="I11" t="s">
         <v>590</v>
       </c>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
+      <c r="J11" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13">
@@ -5237,6 +5327,13 @@
       <c r="I12" t="s">
         <v>591</v>
       </c>
+      <c r="J12" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="K12" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1">
       <c r="A13">
@@ -5266,9 +5363,11 @@
       <c r="I13" t="s">
         <v>590</v>
       </c>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
+      <c r="J13" s="68" t="s">
+        <v>325</v>
+      </c>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1">
@@ -5299,9 +5398,13 @@
       <c r="I14" t="s">
         <v>590</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="J14" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>463</v>
+      </c>
+      <c r="L14" s="68"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1">
@@ -5332,9 +5435,13 @@
       <c r="I15" t="s">
         <v>590</v>
       </c>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="J15" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="K15" s="68"/>
+      <c r="L15" s="67" t="s">
+        <v>291</v>
+      </c>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1">
@@ -5365,9 +5472,11 @@
       <c r="I16" t="s">
         <v>590</v>
       </c>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="J16" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
       <c r="M16"/>
     </row>
     <row r="17" spans="1:13">
@@ -5398,8 +5507,13 @@
       <c r="I17" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
+      <c r="J17" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="40">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5427,9 +5541,11 @@
       <c r="I18" t="s">
         <v>590</v>
       </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="J18" s="73" t="s">
+        <v>551</v>
+      </c>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13">
@@ -5460,6 +5576,11 @@
       <c r="I19" t="s">
         <v>591</v>
       </c>
+      <c r="J19" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1">
       <c r="A20">
@@ -5489,9 +5610,13 @@
       <c r="I20" t="s">
         <v>590</v>
       </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="J20" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68" t="s">
+        <v>292</v>
+      </c>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13">
@@ -5522,6 +5647,11 @@
       <c r="I21" t="s">
         <v>591</v>
       </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1">
       <c r="A22">
@@ -5551,9 +5681,13 @@
       <c r="I22" t="s">
         <v>590</v>
       </c>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="J22" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68" t="s">
+        <v>292</v>
+      </c>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13">
@@ -5584,6 +5718,11 @@
       <c r="I23" t="s">
         <v>591</v>
       </c>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="L23" s="68"/>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1">
       <c r="A24">
@@ -5613,9 +5752,13 @@
       <c r="I24" t="s">
         <v>590</v>
       </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="J24" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68" t="s">
+        <v>293</v>
+      </c>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13">
@@ -5646,6 +5789,13 @@
       <c r="I25" t="s">
         <v>591</v>
       </c>
+      <c r="J25" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="K25" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1">
       <c r="A26">
@@ -5675,9 +5825,13 @@
       <c r="I26" t="s">
         <v>590</v>
       </c>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="J26" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="K26" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="L26" s="68"/>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13">
@@ -5706,8 +5860,13 @@
       <c r="I27" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="J27" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.5" thickBot="1">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5735,8 +5894,17 @@
       <c r="I28" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="J28" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="K28" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="L28" s="70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20.5" thickTop="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5763,6 +5931,13 @@
       </c>
       <c r="I29" t="s">
         <v>591</v>
+      </c>
+      <c r="J29" s="71" t="s">
+        <v>334</v>
+      </c>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1">
@@ -5793,9 +5968,11 @@
       <c r="I30" t="s">
         <v>590</v>
       </c>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
+      <c r="J30" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13">
@@ -5823,6 +6000,13 @@
       <c r="I31" t="s">
         <v>591</v>
       </c>
+      <c r="J31" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
@@ -5852,6 +6036,11 @@
       <c r="I32" t="s">
         <v>591</v>
       </c>
+      <c r="J32" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1">
       <c r="A33">
@@ -5881,12 +6070,14 @@
       <c r="I33" t="s">
         <v>590</v>
       </c>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="J33" s="73" t="s">
+        <v>326</v>
+      </c>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="1:13" s="1" customFormat="1">
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="40">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5902,10 +6093,10 @@
       <c r="E34" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="48" t="s">
         <v>588</v>
       </c>
-      <c r="G34" s="65" t="s">
+      <c r="G34" s="48" t="s">
         <v>587</v>
       </c>
       <c r="H34" t="s">
@@ -5914,9 +6105,15 @@
       <c r="I34" t="s">
         <v>590</v>
       </c>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="J34" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="K34" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" s="68" t="s">
+        <v>300</v>
+      </c>
       <c r="M34"/>
     </row>
     <row r="35" spans="1:13">
@@ -5947,6 +6144,11 @@
       <c r="I35" t="s">
         <v>591</v>
       </c>
+      <c r="J35" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1">
       <c r="A36">
@@ -5976,9 +6178,11 @@
       <c r="I36" t="s">
         <v>590</v>
       </c>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="J36" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
       <c r="M36"/>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1">
@@ -6009,9 +6213,11 @@
       <c r="I37" t="s">
         <v>590</v>
       </c>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="J37" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
       <c r="M37"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1">
@@ -6042,9 +6248,13 @@
       <c r="I38" t="s">
         <v>590</v>
       </c>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="J38" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" s="68"/>
       <c r="M38"/>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1">
@@ -6075,9 +6285,11 @@
       <c r="I39" t="s">
         <v>590</v>
       </c>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="J39" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
       <c r="M39"/>
     </row>
     <row r="40" spans="1:13">
@@ -6108,6 +6320,11 @@
       <c r="I40" t="s">
         <v>591</v>
       </c>
+      <c r="J40" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
@@ -6137,6 +6354,11 @@
       <c r="I41" t="s">
         <v>591</v>
       </c>
+      <c r="J41" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1">
       <c r="A42">
@@ -6166,9 +6388,11 @@
       <c r="I42" t="s">
         <v>590</v>
       </c>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
+      <c r="J42" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
       <c r="M42"/>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1">
@@ -6199,12 +6423,14 @@
       <c r="I43" t="s">
         <v>590</v>
       </c>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="J43" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="1:13" s="1" customFormat="1">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="20.5" thickBot="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6232,12 +6458,14 @@
       <c r="I44" t="s">
         <v>590</v>
       </c>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70" t="s">
+        <v>490</v>
+      </c>
+      <c r="L44" s="70"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="1:13" s="1" customFormat="1">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="20.5" thickTop="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6265,9 +6493,11 @@
       <c r="I45" t="s">
         <v>590</v>
       </c>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" s="71"/>
       <c r="M45"/>
     </row>
     <row r="46" spans="1:13" s="1" customFormat="1">
@@ -6298,12 +6528,14 @@
       <c r="I46" t="s">
         <v>590</v>
       </c>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="68"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="20.5" thickBot="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6331,8 +6563,15 @@
       <c r="I47" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="J47" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="20.5" thickTop="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6360,6 +6599,11 @@
       <c r="I48" t="s">
         <v>591</v>
       </c>
+      <c r="J48" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
@@ -6387,6 +6631,9 @@
       <c r="I49" t="s">
         <v>591</v>
       </c>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
@@ -6416,6 +6663,11 @@
       <c r="I50" t="s">
         <v>591</v>
       </c>
+      <c r="J50" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
     </row>
     <row r="51" spans="1:13" s="1" customFormat="1">
       <c r="A51">
@@ -6445,12 +6697,16 @@
       <c r="I51" t="s">
         <v>590</v>
       </c>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="J51" s="67" t="s">
+        <v>453</v>
+      </c>
+      <c r="K51" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="L51" s="68"/>
       <c r="M51"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="20.5" thickBot="1">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6478,8 +6734,15 @@
       <c r="I52" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="J52" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="K52" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="L52" s="70"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.5" thickTop="1">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6507,6 +6770,13 @@
       <c r="I53" t="s">
         <v>591</v>
       </c>
+      <c r="J53" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="K53" s="71" t="s">
+        <v>307</v>
+      </c>
+      <c r="L53" s="71"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
@@ -6536,6 +6806,13 @@
       <c r="I54" t="s">
         <v>591</v>
       </c>
+      <c r="J54" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="K54" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="L54" s="68"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
@@ -6565,6 +6842,11 @@
       <c r="I55" t="s">
         <v>591</v>
       </c>
+      <c r="J55" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
@@ -6594,6 +6876,11 @@
       <c r="I56" t="s">
         <v>591</v>
       </c>
+      <c r="J56" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
     </row>
     <row r="57" spans="1:13" s="1" customFormat="1">
       <c r="A57">
@@ -6623,9 +6910,11 @@
       <c r="I57" t="s">
         <v>590</v>
       </c>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="J57" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
       <c r="M57"/>
     </row>
     <row r="58" spans="1:13">
@@ -6656,6 +6945,11 @@
       <c r="I58" t="s">
         <v>591</v>
       </c>
+      <c r="J58" s="68" t="s">
+        <v>332</v>
+      </c>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
@@ -6685,6 +6979,13 @@
       <c r="I59" t="s">
         <v>591</v>
       </c>
+      <c r="J59" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="K59" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="L59" s="68"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
@@ -6712,6 +7013,11 @@
       <c r="I60" t="s">
         <v>591</v>
       </c>
+      <c r="J60" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
     </row>
     <row r="61" spans="1:13" s="1" customFormat="1">
       <c r="A61">
@@ -6741,9 +7047,11 @@
       <c r="I61" t="s">
         <v>590</v>
       </c>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="J61" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
       <c r="M61"/>
     </row>
     <row r="62" spans="1:13">
@@ -6774,6 +7082,11 @@
       <c r="I62" t="s">
         <v>591</v>
       </c>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="L62" s="68"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63">
@@ -6803,8 +7116,13 @@
       <c r="I63" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="J63" s="68" t="s">
+        <v>347</v>
+      </c>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+    </row>
+    <row r="64" spans="1:13" ht="20.5" thickBot="1">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6832,8 +7150,13 @@
       <c r="I64" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" s="1" customFormat="1">
+      <c r="J64" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+    </row>
+    <row r="65" spans="1:13" s="1" customFormat="1" ht="20.5" thickTop="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6861,9 +7184,13 @@
       <c r="I65" t="s">
         <v>590</v>
       </c>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="J65" s="74" t="s">
+        <v>512</v>
+      </c>
+      <c r="K65" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="L65" s="71"/>
       <c r="M65"/>
     </row>
     <row r="66" spans="1:13">
@@ -6894,6 +7221,11 @@
       <c r="I66" t="s">
         <v>591</v>
       </c>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
@@ -6921,6 +7253,11 @@
       <c r="I67" t="s">
         <v>591</v>
       </c>
+      <c r="J67" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68">
@@ -6950,6 +7287,11 @@
       <c r="I68" t="s">
         <v>591</v>
       </c>
+      <c r="J68" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
@@ -6979,6 +7321,11 @@
       <c r="I69" t="s">
         <v>591</v>
       </c>
+      <c r="J69" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:13" s="1" customFormat="1">
       <c r="A70">
@@ -7008,9 +7355,11 @@
       <c r="I70" t="s">
         <v>590</v>
       </c>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
+      <c r="J70" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
       <c r="M70"/>
     </row>
     <row r="71" spans="1:13">
@@ -7041,8 +7390,13 @@
       <c r="I71" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" s="1" customFormat="1">
+      <c r="J71" s="68"/>
+      <c r="K71" s="68" t="s">
+        <v>296</v>
+      </c>
+      <c r="L71" s="68"/>
+    </row>
+    <row r="72" spans="1:13" s="1" customFormat="1" ht="20.5" thickBot="1">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7068,12 +7422,16 @@
       <c r="I72" t="s">
         <v>590</v>
       </c>
-      <c r="J72"/>
-      <c r="K72"/>
-      <c r="L72"/>
+      <c r="J72" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70" t="s">
+        <v>517</v>
+      </c>
       <c r="M72"/>
     </row>
-    <row r="73" spans="1:13" s="1" customFormat="1">
+    <row r="73" spans="1:13" s="1" customFormat="1" ht="20.5" thickTop="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7101,9 +7459,11 @@
       <c r="I73" t="s">
         <v>590</v>
       </c>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+      <c r="L73" s="72" t="s">
+        <v>311</v>
+      </c>
       <c r="M73"/>
     </row>
     <row r="74" spans="1:13" s="1" customFormat="1">
@@ -7134,9 +7494,11 @@
       <c r="I74" t="s">
         <v>590</v>
       </c>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68" t="s">
+        <v>521</v>
+      </c>
       <c r="M74"/>
     </row>
     <row r="75" spans="1:13" s="1" customFormat="1">
@@ -7167,9 +7529,11 @@
       <c r="I75" t="s">
         <v>590</v>
       </c>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="67" t="s">
+        <v>524</v>
+      </c>
       <c r="M75"/>
     </row>
     <row r="76" spans="1:13">
@@ -7200,8 +7564,15 @@
       <c r="I76" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" s="1" customFormat="1">
+      <c r="J76" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="20.5" thickBot="1">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7229,12 +7600,16 @@
       <c r="I77" t="s">
         <v>590</v>
       </c>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
+      <c r="J77" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="K77" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="L77" s="70"/>
       <c r="M77"/>
     </row>
-    <row r="78" spans="1:13" s="1" customFormat="1">
+    <row r="78" spans="1:13" s="1" customFormat="1" ht="20.5" thickTop="1">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7262,9 +7637,11 @@
       <c r="I78" t="s">
         <v>590</v>
       </c>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
+      <c r="J78" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
       <c r="M78"/>
     </row>
     <row r="79" spans="1:13">
@@ -7295,8 +7672,11 @@
       <c r="I79" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" s="1" customFormat="1">
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+    </row>
+    <row r="80" spans="1:13" s="1" customFormat="1" ht="20.5" thickBot="1">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7324,12 +7704,14 @@
       <c r="I80" t="s">
         <v>590</v>
       </c>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
+      <c r="J80" s="69" t="s">
+        <v>484</v>
+      </c>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
       <c r="M80"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" ht="20.5" thickTop="1">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7352,6 +7734,11 @@
       <c r="I81" t="s">
         <v>591</v>
       </c>
+      <c r="J81" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="K81" s="71"/>
+      <c r="L81" s="71"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82">
@@ -7381,6 +7768,11 @@
       <c r="I82" t="s">
         <v>591</v>
       </c>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="L82" s="68"/>
     </row>
     <row r="83" spans="1:13" s="1" customFormat="1">
       <c r="A83">
@@ -7410,12 +7802,14 @@
       <c r="I83" t="s">
         <v>590</v>
       </c>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="L83" s="68"/>
       <c r="M83"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" ht="20.5" thickBot="1">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7443,8 +7837,13 @@
       <c r="I84" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" s="1" customFormat="1">
+      <c r="J84" s="70"/>
+      <c r="K84" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="L84" s="70"/>
+    </row>
+    <row r="85" spans="1:13" s="1" customFormat="1" ht="20.5" thickTop="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7472,9 +7871,11 @@
       <c r="I85" t="s">
         <v>590</v>
       </c>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="71" t="s">
+        <v>532</v>
+      </c>
       <c r="M85"/>
     </row>
     <row r="86" spans="1:13" s="1" customFormat="1">
@@ -7505,9 +7906,11 @@
       <c r="I86" t="s">
         <v>590</v>
       </c>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="67" t="s">
+        <v>316</v>
+      </c>
       <c r="M86"/>
     </row>
     <row r="87" spans="1:13" s="1" customFormat="1">
@@ -7538,12 +7941,14 @@
       <c r="I87" t="s">
         <v>590</v>
       </c>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
+      <c r="J87" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
       <c r="M87"/>
     </row>
-    <row r="88" spans="1:13" s="1" customFormat="1">
+    <row r="88" spans="1:13" s="1" customFormat="1" ht="20.5" thickBot="1">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7571,12 +7976,14 @@
       <c r="I88" t="s">
         <v>590</v>
       </c>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70" t="s">
+        <v>317</v>
+      </c>
       <c r="M88"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" ht="20.5" thickTop="1">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7584,11 +7991,11 @@
         <v>84</v>
       </c>
       <c r="C89"/>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
       <c r="G89"/>
       <c r="H89" t="s">
         <v>564</v>
@@ -7596,6 +8003,11 @@
       <c r="I89" t="s">
         <v>591</v>
       </c>
+      <c r="J89" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="K89" s="71"/>
+      <c r="L89" s="71"/>
     </row>
     <row r="90" spans="1:13" s="1" customFormat="1">
       <c r="A90">
@@ -7605,11 +8017,11 @@
         <v>85</v>
       </c>
       <c r="C90"/>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
       <c r="G90"/>
       <c r="H90" t="s">
         <v>564</v>
@@ -7617,9 +8029,11 @@
       <c r="I90" t="s">
         <v>590</v>
       </c>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
+      <c r="J90" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
       <c r="M90"/>
     </row>
     <row r="91" spans="1:13">
@@ -7630,11 +8044,11 @@
         <v>86</v>
       </c>
       <c r="C91"/>
-      <c r="D91" s="48" t="s">
+      <c r="D91" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
       <c r="G91"/>
       <c r="H91" t="s">
         <v>564</v>
@@ -7642,6 +8056,11 @@
       <c r="I91" t="s">
         <v>591</v>
       </c>
+      <c r="J91" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
     </row>
     <row r="92" spans="1:13" s="1" customFormat="1">
       <c r="A92">
@@ -7651,11 +8070,11 @@
         <v>87</v>
       </c>
       <c r="C92"/>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
       <c r="G92"/>
       <c r="H92" t="s">
         <v>564</v>
@@ -7663,9 +8082,11 @@
       <c r="I92" t="s">
         <v>591</v>
       </c>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
+      <c r="J92" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="K92" s="68"/>
+      <c r="L92" s="68"/>
       <c r="M92"/>
     </row>
     <row r="93" spans="1:13">
@@ -7694,6 +8115,11 @@
       <c r="I93" s="7" t="s">
         <v>590</v>
       </c>
+      <c r="J93" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="K93" s="68"/>
+      <c r="L93" s="68"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94">
@@ -7723,6 +8149,11 @@
       <c r="I94" s="7" t="s">
         <v>590</v>
       </c>
+      <c r="J94" s="68"/>
+      <c r="K94" s="68" t="s">
+        <v>470</v>
+      </c>
+      <c r="L94" s="68"/>
     </row>
     <row r="95" spans="1:13">
       <c r="A95">
@@ -7750,8 +8181,13 @@
       <c r="I95" s="7" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="J95" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="K95" s="68"/>
+      <c r="L95" s="68"/>
+    </row>
+    <row r="96" spans="1:13" ht="20.5" thickBot="1">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7779,8 +8215,17 @@
       <c r="I96" s="7" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="J96" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="K96" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="L96" s="70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="21" thickTop="1" thickBot="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7808,8 +8253,13 @@
       <c r="I97" s="7" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="J97" s="70"/>
+      <c r="K97" s="70" t="s">
+        <v>490</v>
+      </c>
+      <c r="L97" s="70"/>
+    </row>
+    <row r="98" spans="1:12" ht="20.5" thickTop="1">
       <c r="A98">
         <v>23</v>
       </c>
@@ -7837,8 +8287,13 @@
       <c r="I98" s="7" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" s="67"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>33</v>
       </c>
@@ -7857,7 +8312,7 @@
       <c r="F99" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G99" s="65" t="s">
+      <c r="G99" s="48" t="s">
         <v>586</v>
       </c>
       <c r="H99" t="s">
@@ -7866,21 +8321,30 @@
       <c r="I99" s="7" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="102" spans="1:9">
+      <c r="J99" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="K99" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="L99" s="68" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="C102" s="19"/>
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:12">
       <c r="C103"/>
       <c r="E103" s="7"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:12">
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:12">
       <c r="C105"/>
       <c r="E105" s="7"/>
     </row>
@@ -10421,11 +10885,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="60" t="s">
+      <c r="D89" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="63"/>
       <c r="G89" s="34"/>
       <c r="H89" s="35" t="s">
         <v>342</v>
@@ -10441,11 +10905,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="63" t="s">
+      <c r="D90" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
       <c r="G90" s="5"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -10461,11 +10925,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
       <c r="G91" s="5"/>
       <c r="H91" s="21" t="s">
         <v>351</v>
@@ -10481,11 +10945,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="63" t="s">
+      <c r="D92" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
       <c r="G92" s="5"/>
       <c r="H92" s="21" t="s">
         <v>352</v>
@@ -10531,8 +10995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DA2EF5-65BE-A247-9320-F402E494185E}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="G24" sqref="A24:G24"/>
+    <sheetView topLeftCell="A65" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20"/>
@@ -12959,11 +13423,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -12977,11 +13441,11 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -12997,11 +13461,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -13015,11 +13479,11 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="52" t="s">
+      <c r="D92" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="53"/>
-      <c r="F92" s="53"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -15503,11 +15967,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -15523,11 +15987,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -15543,11 +16007,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -15563,11 +16027,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -18049,11 +18513,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -18069,11 +18533,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -18089,11 +18553,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -18109,11 +18573,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -20593,11 +21057,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -20613,11 +21077,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -20633,11 +21097,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -20653,11 +21117,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -23189,11 +23653,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24" t="s">
         <v>534</v>
       </c>
@@ -23211,11 +23675,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14" t="s">
         <v>534</v>
       </c>
@@ -23233,11 +23697,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14" t="s">
         <v>534</v>
       </c>
@@ -23255,11 +23719,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14" t="s">
         <v>534</v>
       </c>
@@ -26049,11 +26513,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -26073,11 +26537,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21"/>
       <c r="I90" s="16" t="s">
@@ -26095,11 +26559,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -26119,11 +26583,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -28957,11 +29421,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -28981,11 +29445,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -29005,11 +29469,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -29029,11 +29493,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
@@ -31869,11 +32333,11 @@
         <v>84</v>
       </c>
       <c r="C89" s="43"/>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="24"/>
       <c r="H89" s="25" t="s">
         <v>342</v>
@@ -31893,11 +32357,11 @@
         <v>85</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="E90" s="58"/>
-      <c r="F90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="14"/>
       <c r="H90" s="21" t="s">
         <v>284</v>
@@ -31917,11 +32381,11 @@
         <v>86</v>
       </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15" t="s">
         <v>351</v>
@@ -31941,11 +32405,11 @@
         <v>87</v>
       </c>
       <c r="C92" s="2"/>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="E92" s="58"/>
-      <c r="F92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15" t="s">
         <v>352</v>
